--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2049283.745220612</v>
+        <v>2160022.622789735</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5438909.932429031</v>
+        <v>5741347.218252449</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.761765420012605</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>313.2064866749066</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.0628312592304</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>154.2430156061946</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -896,19 +898,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>322.2366735834876</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>317.2778751268551</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>146.9654510894819</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>160.7005144749623</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>175.4695839430112</v>
       </c>
       <c r="E8" t="n">
-        <v>325.5800738246913</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>27.07950026194628</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,16 +1344,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>99.46429937440888</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>407.8706205917832</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>42.23945948267395</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1774,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>54.49360828359321</v>
       </c>
       <c r="T16" t="n">
-        <v>131.996999652747</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.10461178738937</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>61.08641542222794</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>10.04027365719926</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494593</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561541</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>10.04027365719926</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3667,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5280167332546</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3794,10 +3796,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>19.80087630034418</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E44" t="n">
-        <v>172.7087709932908</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>75.74046452697644</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170502</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.8707619056961</v>
+        <v>949.4529008264926</v>
       </c>
       <c r="C2" t="n">
-        <v>807.7686931295234</v>
+        <v>915.3508320503199</v>
       </c>
       <c r="D2" t="n">
-        <v>775.899312344372</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4331,49 +4333,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1692.373566019799</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1692.373566019799</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1692.373566019799</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1692.373566019799</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1287.518111430832</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1272.416052050547</v>
+        <v>975.9577869309389</v>
       </c>
       <c r="Y2" t="n">
-        <v>864.1299283501999</v>
+        <v>971.7120672709964</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4404,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M3" t="n">
         <v>319.8519551513677</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
+        <v>319.8519551513677</v>
+      </c>
+      <c r="O3" t="n">
         <v>739.9048540962709</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4486,19 +4488,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>1146.964903885608</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1295.502957794029</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1008.54744966446</v>
       </c>
       <c r="W4" t="n">
-        <v>679.1093267936133</v>
+        <v>736.5210452507515</v>
       </c>
       <c r="X4" t="n">
-        <v>433.7175721270257</v>
+        <v>491.1292905841639</v>
       </c>
       <c r="Y4" t="n">
-        <v>433.7175721270257</v>
+        <v>491.1292905841639</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>863.0357172789412</v>
       </c>
       <c r="C5" t="n">
-        <v>925.2294405284488</v>
+        <v>424.8932444623645</v>
       </c>
       <c r="D5" t="n">
-        <v>893.3600597432974</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>74.67620151272523</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>50.84917596233702</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233702</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233702</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1733.888642131951</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2357.989426176729</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2357.989426176729</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2116.763874884885</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1697.621411464196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1289.335287763849</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326456</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993463</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>76.49605974993463</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993463</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993463</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>76.49605974993463</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>76.49605974993463</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>700.5968437947129</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1324.697627839491</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6525504900546</v>
+        <v>593.0357356940358</v>
       </c>
       <c r="C7" t="n">
-        <v>605.0908389732796</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="D7" t="n">
-        <v>439.2128461748023</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639177</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609519</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179223</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055675</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1816.64769230878</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>1257.665779765502</v>
       </c>
       <c r="X7" t="n">
-        <v>969.4711692090418</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>969.4711692090418</v>
+        <v>784.854354413023</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.077691008219</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N9" t="n">
-        <v>1580.010651986078</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.243825464227</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>770.682113947452</v>
+        <v>847.3485218817319</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8041211489747</v>
+        <v>681.4705290832546</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>511.7125253339919</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>335.0054712957481</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>169.4141963215757</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.055250816706</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.055250816706</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>1416.055250816706</v>
+        <v>1684.540277469973</v>
       </c>
       <c r="X10" t="n">
-        <v>1170.663496150119</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>943.243825464227</v>
+        <v>1211.728852117494</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1785.68009831996</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1373.689572469674</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>811.1177053465623</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1753.32066884037</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2695.523632334179</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3637.726595827986</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3637.726595827986</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2620.265792505214</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2211.979668804867</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2106.883679092763</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>76.13761321162086</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1018.340576705429</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1922.474733593427</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2864.677697087235</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3806.880660581043</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3806.880660581043</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3723.22878676488</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3360.611836698707</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3360.611836698707</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2941.469373278017</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2533.183249577671</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162086</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>756.8711332819981</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L15" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.195773823502</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C16" t="n">
-        <v>982.6340623067273</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T16" t="n">
-        <v>2378.807730438247</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U16" t="n">
-        <v>2378.807730438247</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V16" t="n">
-        <v>2091.852222308677</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W16" t="n">
-        <v>1819.825817894969</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X16" t="n">
-        <v>1574.434063228381</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y16" t="n">
-        <v>1347.01439254249</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,22 +5518,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
         <v>5113.042013538981</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>1082.867562242341</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.867562242341</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.867562242341</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2657.217000252137</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2411.337553830592</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2132.904553083697</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5978,10 +5980,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6020,16 +6022,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.77365348828</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698831</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>3762.041963884335</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>3762.041963884335</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>3762.041963884335</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>3762.041963884335</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>4995.869235444641</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>4995.869235444641</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>4995.869235444641</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
         <v>4995.869235444641</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>790.3368563937634</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>624.4588635952861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>454.7008598460233</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>277.9938058077795</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4025308336072</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6424,10 +6426,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,37 +6463,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>475.2748675296863</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
         <v>4550.100609912873</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,22 +6937,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>269.4112304877946</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1103.761522445973</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2178.821488698832</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.042013538981</v>
@@ -6959,7 +6961,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>624.4588635952861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>454.7008598460233</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>277.9938058077795</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>112.4025308336072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7172,25 +7174,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>3603.973621145286</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7214,10 +7216,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
         <v>444.5591692831957</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1844.577947443009</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1844.577947443009</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1408.668162617453</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>974.8934177757483</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>547.0259881849561</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162086</v>
+        <v>380.3945678471333</v>
       </c>
       <c r="K41" t="n">
-        <v>910.4879051697988</v>
+        <v>380.3945678471333</v>
       </c>
       <c r="L41" t="n">
-        <v>1094.164858760031</v>
+        <v>1455.454534099993</v>
       </c>
       <c r="M41" t="n">
-        <v>1094.164858760031</v>
+        <v>2612.502369310544</v>
       </c>
       <c r="N41" t="n">
-        <v>2036.367822253839</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O41" t="n">
-        <v>2978.570785747647</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>3806.880660581043</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3503.161559637919</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3503.161559637919</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3098.306105048952</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2679.163641628263</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2270.877517927916</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>76.13761321162086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>76.13761321162086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1018.340576705429</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.605384001193</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>837.0436724844177</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>671.1656796859404</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>501.4076759366777</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>324.7006218984338</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.87007781978</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.843673406072</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1428.843673406072</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1201.42400272018</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.457795636976</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1088.3153228204</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>652.4055379948441</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>477.952233961217</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.952233961217</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1867.213757500782</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1867.213757500782</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.213757500782</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2809.41672099459</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3185.041407831886</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2780.18595324292</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.043489822231</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1952.757366121884</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1220.419104657031</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.6314506292333</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C46" t="n">
-        <v>613.0697391124583</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D46" t="n">
-        <v>447.191746313981</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E46" t="n">
-        <v>277.4337425647182</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F46" t="n">
-        <v>100.7266885264744</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.287899114408</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.2614947007</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.869740034112</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y46" t="n">
-        <v>977.4500693482205</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>34.867532687005</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>165.2827306031536</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>274.5472142772276</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>299.7839758982016</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>302.752934022246</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452606</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>913.2668251393918</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2295987639961</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>664.5938549921407</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9179,10 +9181,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>127.539329130751</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>143.3273746213856</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,7 +9892,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>289.0667057209134</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>376.7818457160674</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,7 +10603,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,16 +10834,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>135.6158905067728</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>280.943159168034</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>185.5322763537697</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>728.3199979646474</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7385503818844</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>405.8439312515745</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>25.89042749662775</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>391.521588605737</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>103.1553467313901</v>
       </c>
       <c r="T16" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>96.56253959275536</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>128.46287890933</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>128.46287890933</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>217.8558363297142</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>144.1344859240864</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>256.728226399997</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>114.1599680048208</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627256</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>472982.2718863428</v>
+        <v>483550.8739057389</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>472982.2718863428</v>
+        <v>485453.7739440102</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>405767.3404721861</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>405767.340472186</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>405767.3404721859</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>405767.340472186</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="E2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270509</v>
       </c>
       <c r="F2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270509</v>
       </c>
       <c r="G2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="J2" t="n">
         <v>487343.2653270508</v>
@@ -26341,19 +26343,19 @@
         <v>487343.2653270508</v>
       </c>
       <c r="L2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="M2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="N2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="O2" t="n">
-        <v>394036.550189223</v>
-      </c>
       <c r="P2" t="n">
-        <v>394036.5501892229</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998297</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>9392.301726622482</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.898793246</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>54981.28828435789</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="K4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68000.69828933281</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="J4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68000.69828933278</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="O4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54981.28828435788</v>
-      </c>
-      <c r="P4" t="n">
-        <v>54981.28828435788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94491.35585517978</v>
+        <v>94491.35585517983</v>
       </c>
       <c r="C6" t="n">
-        <v>236682.6565148897</v>
+        <v>194165.3904023632</v>
       </c>
       <c r="D6" t="n">
-        <v>236682.6565148897</v>
+        <v>253559.5095342133</v>
       </c>
       <c r="E6" t="n">
-        <v>123713.3809419293</v>
+        <v>159269.2192108758</v>
       </c>
       <c r="F6" t="n">
-        <v>281190.6758640333</v>
+        <v>341624.3284319256</v>
       </c>
       <c r="G6" t="n">
-        <v>252124.5198255563</v>
+        <v>341624.3284319255</v>
       </c>
       <c r="H6" t="n">
-        <v>341624.3284319254</v>
+        <v>341624.3284319255</v>
       </c>
       <c r="I6" t="n">
         <v>341624.3284319254</v>
@@ -26546,22 +26548,22 @@
         <v>230609.8630869352</v>
       </c>
       <c r="K6" t="n">
+        <v>288578.4737931531</v>
+      </c>
+      <c r="L6" t="n">
+        <v>332232.026705303</v>
+      </c>
+      <c r="M6" t="n">
+        <v>189424.1574939378</v>
+      </c>
+      <c r="N6" t="n">
         <v>341624.3284319254</v>
       </c>
-      <c r="L6" t="n">
-        <v>341624.3284319253</v>
-      </c>
-      <c r="M6" t="n">
-        <v>210188.0812745059</v>
-      </c>
-      <c r="N6" t="n">
-        <v>341624.3284319255</v>
-      </c>
       <c r="O6" t="n">
-        <v>281190.6758640332</v>
+        <v>341624.3284319254</v>
       </c>
       <c r="P6" t="n">
-        <v>281190.6758640332</v>
+        <v>341624.3284319254</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939405</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939405</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939405</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>78.05358965798875</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>101.7445521115758</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.83760127256681</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>121.4056551332311</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>111.5243745049233</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>114.2728118504448</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>23.8706433121254</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>82.23732264495939</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>256.0811030342887</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>103.8569235685964</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>176.1843713650168</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>34.867532687005</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>165.2827306031536</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>274.5472142772276</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>299.7839758982016</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>302.752934022246</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452606</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>913.2668251393918</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2295987639961</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>664.5938549921407</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,10 +35819,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35899,10 +35901,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>127.539329130751</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>143.3273746213856</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,7 +36612,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>289.0667057209134</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>376.7818457160674</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,7 +37323,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,16 +37554,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>135.6158905067728</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>280.943159168034</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>185.5322763537697</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>728.3199979646474</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7385503818844</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>405.8439312515745</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080455</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2160022.622789735</v>
+        <v>2159497.440420703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916856</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5741347.218252449</v>
+        <v>5741347.218252448</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>363.9731463221483</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>313.2064866749066</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>154.2430156061946</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>317.2778751268551</v>
+        <v>317.6904966059874</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>146.9654510894819</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964408</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>175.4695839430112</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>129.475840043234</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>159.0870598415706</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>27.07950026194628</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>43.77283765622091</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>54.49360828359321</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>15.57230972412408</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>81.01098805494593</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,10 +3283,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655108</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135475</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3520,10 +3520,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="39">
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056497</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.74046452697644</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225526</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.4529008264926</v>
+        <v>888.1040799405456</v>
       </c>
       <c r="C2" t="n">
-        <v>915.3508320503199</v>
+        <v>854.002011164373</v>
       </c>
       <c r="D2" t="n">
-        <v>486.7691577875882</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1697.183430080417</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4366,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>975.9577869309389</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.7120672709964</v>
+        <v>1314.403650425453</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1295.502957794029</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1008.54744966446</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>736.5210452507515</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>491.1292905841639</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.1292905841639</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.0357172789412</v>
+        <v>863.0357172789421</v>
       </c>
       <c r="C5" t="n">
-        <v>424.8932444623645</v>
+        <v>424.8932444623654</v>
       </c>
       <c r="D5" t="n">
-        <v>104.410542314026</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>74.67620151272523</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947703</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087173</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087173</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087173</v>
+        <v>1298.633954679034</v>
       </c>
       <c r="O5" t="n">
-        <v>1733.888642131951</v>
+        <v>1922.734738723812</v>
       </c>
       <c r="P5" t="n">
-        <v>2357.989426176729</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="Q5" t="n">
-        <v>2357.989426176729</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.763874884885</v>
+        <v>2116.763874884886</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.621411464196</v>
+        <v>1697.621411464197</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.335287763849</v>
+        <v>1289.33528776385</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326456</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947703</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993463</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993463</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993463</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>76.49605974993463</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>76.49605974993463</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>76.49605974993463</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>700.5968437947129</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1324.697627839491</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.0357356940358</v>
+        <v>593.0357356940367</v>
       </c>
       <c r="C7" t="n">
-        <v>444.5857850985995</v>
+        <v>420.4740241772616</v>
       </c>
       <c r="D7" t="n">
-        <v>444.5857850985995</v>
+        <v>254.5960313787843</v>
       </c>
       <c r="E7" t="n">
-        <v>444.5857850985995</v>
+        <v>84.83802762952158</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947703</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932635</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639177</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609519</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179223</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055675</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.64769230878</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765502</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098915</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.854354413023</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>396.0927374371013</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3583966358005</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4810,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1019.910233398507</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>847.3485218817319</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4705290832546</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>511.7125253339919</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>335.0054712957481</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>169.4141963215757</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4974,7 +4974,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013251</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469973</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1439.148522803386</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1211.728852117494</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5077,16 +5077,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.681281130895</v>
+        <v>2674.705462642043</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.80183470935</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,13 +5287,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
@@ -5317,13 +5317,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.9519976190925</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>743.3902861023174</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>577.5122933038401</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>407.7542895545774</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5454,34 +5454,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2663.876401402276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2417.996954980732</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2139.563954233837</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1852.608446104267</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1580.582041690559</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1335.190287023971</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1107.77061633808</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5597,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5700,7 +5700,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
         <v>2454.80183470935</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5980,37 +5980,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6022,16 +6022,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6919,58 +6919,58 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6995,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7411,52 +7411,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>380.3945678471333</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>380.3945678471333</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1455.454534099993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2612.502369310544</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N41" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7469,16 +7469,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7657,43 +7657,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7809,49 +7809,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066021</v>
       </c>
       <c r="L46" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745632</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955476</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113121</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.67908147158</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.36663430314</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.41112617357</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>604.9339300505455</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2827306031536</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.5472142772276</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982016</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>280.943159168034</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>113.8761173587624</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>103.1553467313901</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>227.3655273957976</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114.1599680048208</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.592177662728</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501851.8728118659</v>
+        <v>501851.8728118658</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501851.8728118659</v>
+        <v>501851.8728118658</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>501851.8728118659</v>
+        <v>501851.8728118658</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>501851.8728118659</v>
+        <v>501851.8728118658</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501851.8728118659</v>
+        <v>501851.8728118658</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>495936.2708986276</v>
+      </c>
+      <c r="C2" t="n">
         <v>495936.2708986277</v>
-      </c>
-      <c r="C2" t="n">
-        <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986278</v>
       </c>
       <c r="E2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="K2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="N2" t="n">
         <v>487343.2653270507</v>
@@ -26355,7 +26355,7 @@
         <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.76789501602</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998297</v>
+        <v>11527.59554998291</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.8546387724</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622482</v>
+        <v>9392.301726622429</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,7 +26420,7 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>163226.898793246</v>
+        <v>163226.8987932459</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
@@ -26429,13 +26429,13 @@
         <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="G4" t="n">
         <v>68000.69828933282</v>
       </c>
-      <c r="G4" t="n">
-        <v>68000.69828933277</v>
-      </c>
       <c r="H4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26444,22 +26444,22 @@
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933288</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933288</v>
       </c>
       <c r="O4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800253</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26487,7 +26487,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94491.35585517983</v>
+        <v>94491.35585517978</v>
       </c>
       <c r="C6" t="n">
         <v>194165.3904023632</v>
@@ -26530,40 +26530,40 @@
         <v>253559.5095342133</v>
       </c>
       <c r="E6" t="n">
-        <v>159269.2192108758</v>
+        <v>159245.994871493</v>
       </c>
       <c r="F6" t="n">
-        <v>341624.3284319256</v>
+        <v>341601.1040925428</v>
       </c>
       <c r="G6" t="n">
-        <v>341624.3284319255</v>
+        <v>341601.1040925426</v>
       </c>
       <c r="H6" t="n">
-        <v>341624.3284319255</v>
+        <v>341601.1040925428</v>
       </c>
       <c r="I6" t="n">
-        <v>341624.3284319254</v>
+        <v>341601.1040925427</v>
       </c>
       <c r="J6" t="n">
-        <v>230609.8630869352</v>
+        <v>230586.6387475526</v>
       </c>
       <c r="K6" t="n">
-        <v>288578.4737931531</v>
+        <v>288555.2494537703</v>
       </c>
       <c r="L6" t="n">
-        <v>332232.026705303</v>
+        <v>332208.8023659203</v>
       </c>
       <c r="M6" t="n">
-        <v>189424.1574939378</v>
+        <v>189400.933154555</v>
       </c>
       <c r="N6" t="n">
-        <v>341624.3284319254</v>
+        <v>341601.1040925426</v>
       </c>
       <c r="O6" t="n">
-        <v>341624.3284319254</v>
+        <v>341601.1040925428</v>
       </c>
       <c r="P6" t="n">
-        <v>341624.3284319254</v>
+        <v>341601.1040925427</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939405</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939405</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939405</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>67.57754065515161</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>101.7445521115758</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27548,7 +27548,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>121.4056551332311</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>114.2728118504448</v>
+        <v>113.8601903713125</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>23.8706433121254</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682173</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>256.0811030342887</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>127.1542396129192</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.81337269022669</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>111.4236523045829</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>9.697685318346739e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.936877707947524e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30881,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>604.9339300505455</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2827306031536</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.5472142772276</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982016</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>922.6993899926451</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>280.943159168034</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960936</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080455</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
